--- a/public/assets/template/geojson-template.xlsx
+++ b/public/assets/template/geojson-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\tokusatsu\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273C8BE-FF9B-48E0-8AE3-E4A191BF51C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4884CA-ADBE-4875-BBBD-D2D27345FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1185" windowWidth="29040" windowHeight="15720" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -51,18 +51,12 @@
     <t>Geometry</t>
   </si>
   <si>
-    <t>Properties</t>
-  </si>
-  <si>
     <t>Monas</t>
   </si>
   <si>
     <t>{"type":"Point","coordinates":[106.827153,-6.175392]}</t>
   </si>
   <si>
-    <t>{"city":"Jakarta","category":"Landmark"}</t>
-  </si>
-  <si>
     <t>Tugu Monas di Jakarta</t>
   </si>
   <si>
@@ -72,16 +66,10 @@
     <t>{"type":"LineString","coordinates":[[106.8218,-6.2146],[106.8225,-6.2025],[106.8272,-6.186]]}</t>
   </si>
   <si>
-    <t>{"city":"Jakarta","category":"Road"}</t>
-  </si>
-  <si>
     <t>Bundaran HI</t>
   </si>
   <si>
     <t>{"type":"Polygon","coordinates":[[[106.823,-6.193],[106.8235,-6.1925],[106.824,-6.193],[106.8235,-6.1935],[106.823,-6.193]]]}</t>
-  </si>
-  <si>
-    <t>{"city":"Jakarta","category":"Area"}</t>
   </si>
   <si>
     <t>LineString di Jakarta</t>
@@ -161,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,20 +157,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,93 +483,81 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
